--- a/venta.xlsx
+++ b/venta.xlsx
@@ -6378,37 +6378,92 @@
       </c>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="B759" s="7"/>
+      <c r="A759" s="3">
+        <v>46049.0</v>
+      </c>
+      <c r="B759" s="6">
+        <v>1522.77</v>
+      </c>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="B760" s="7"/>
+      <c r="A760" s="3">
+        <v>46050.0</v>
+      </c>
+      <c r="B760" s="6">
+        <v>1962.24</v>
+      </c>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="B761" s="7"/>
+      <c r="A761" s="3">
+        <v>46051.0</v>
+      </c>
+      <c r="B761" s="6">
+        <v>2584.02</v>
+      </c>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="B762" s="7"/>
+      <c r="A762" s="3">
+        <v>46052.0</v>
+      </c>
+      <c r="B762" s="6">
+        <v>4613.78</v>
+      </c>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="B763" s="7"/>
+      <c r="A763" s="3">
+        <v>46053.0</v>
+      </c>
+      <c r="B763" s="6">
+        <v>4540.0</v>
+      </c>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="B764" s="7"/>
+      <c r="A764" s="3">
+        <v>46054.0</v>
+      </c>
+      <c r="B764" s="6">
+        <v>3884.0</v>
+      </c>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="B765" s="7"/>
+      <c r="A765" s="3">
+        <v>46055.0</v>
+      </c>
+      <c r="B765" s="6">
+        <v>1609.0</v>
+      </c>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="B766" s="7"/>
+      <c r="A766" s="3">
+        <v>46056.0</v>
+      </c>
+      <c r="B766" s="6">
+        <v>2225.0</v>
+      </c>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="B767" s="7"/>
+      <c r="A767" s="3">
+        <v>46057.0</v>
+      </c>
+      <c r="B767" s="6">
+        <v>1818.84</v>
+      </c>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="B768" s="7"/>
+      <c r="A768" s="3">
+        <v>46058.0</v>
+      </c>
+      <c r="B768" s="6">
+        <v>2248.09</v>
+      </c>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="B769" s="7"/>
+      <c r="A769" s="3">
+        <v>46059.0</v>
+      </c>
+      <c r="B769" s="6">
+        <v>4220.44</v>
+      </c>
     </row>
     <row r="770" ht="15.75" customHeight="1">
       <c r="B770" s="7"/>

--- a/venta.xlsx
+++ b/venta.xlsx
@@ -6466,13 +6466,28 @@
       </c>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="B770" s="7"/>
+      <c r="A770" s="3">
+        <v>46060.0</v>
+      </c>
+      <c r="B770" s="6">
+        <v>4009.66</v>
+      </c>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="B771" s="7"/>
+      <c r="A771" s="3">
+        <v>46061.0</v>
+      </c>
+      <c r="B771" s="6">
+        <v>3436.82</v>
+      </c>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="B772" s="7"/>
+      <c r="A772" s="3">
+        <v>46062.0</v>
+      </c>
+      <c r="B772" s="6">
+        <v>1209.54</v>
+      </c>
     </row>
     <row r="773" ht="15.75" customHeight="1">
       <c r="B773" s="7"/>

--- a/venta.xlsx
+++ b/venta.xlsx
@@ -85,7 +85,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
@@ -326,7 +326,7 @@
         <v>45292.0</v>
       </c>
       <c r="B2" s="4">
-        <v>6072.82</v>
+        <v>6194.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -334,7 +334,7 @@
         <v>45293.0</v>
       </c>
       <c r="B3" s="4">
-        <v>2573.08</v>
+        <v>2877.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -342,7 +342,7 @@
         <v>45294.0</v>
       </c>
       <c r="B4" s="4">
-        <v>2015.47</v>
+        <v>1952.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -350,7 +350,7 @@
         <v>45295.0</v>
       </c>
       <c r="B5" s="4">
-        <v>3518.41</v>
+        <v>3265.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -358,7 +358,7 @@
         <v>45296.0</v>
       </c>
       <c r="B6" s="4">
-        <v>7726.05</v>
+        <v>7624.7</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -366,7 +366,7 @@
         <v>45297.0</v>
       </c>
       <c r="B7" s="4">
-        <v>5692.31</v>
+        <v>5819.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -374,7 +374,7 @@
         <v>45298.0</v>
       </c>
       <c r="B8" s="4">
-        <v>3513.68</v>
+        <v>4085.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -382,7 +382,7 @@
         <v>45299.0</v>
       </c>
       <c r="B9" s="4">
-        <v>1411.78</v>
+        <v>1735.0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -390,7 +390,7 @@
         <v>45300.0</v>
       </c>
       <c r="B10" s="4">
-        <v>1548.24</v>
+        <v>1808.39</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -398,7 +398,7 @@
         <v>45301.0</v>
       </c>
       <c r="B11" s="4">
-        <v>1877.42</v>
+        <v>2378.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -406,7 +406,7 @@
         <v>45302.0</v>
       </c>
       <c r="B12" s="4">
-        <v>2063.49</v>
+        <v>2754.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -414,7 +414,7 @@
         <v>45303.0</v>
       </c>
       <c r="B13" s="4">
-        <v>3874.74</v>
+        <v>5492.0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -422,7 +422,7 @@
         <v>45304.0</v>
       </c>
       <c r="B14" s="4">
-        <v>4743.72</v>
+        <v>4641.0</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -430,7 +430,7 @@
         <v>45305.0</v>
       </c>
       <c r="B15" s="4">
-        <v>4956.02</v>
+        <v>5714.0</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -438,7 +438,7 @@
         <v>45306.0</v>
       </c>
       <c r="B16" s="4">
-        <v>1129.14</v>
+        <v>1939.0</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -446,7 +446,7 @@
         <v>45307.0</v>
       </c>
       <c r="B17" s="4">
-        <v>1536.77</v>
+        <v>2143.0</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -454,7 +454,7 @@
         <v>45308.0</v>
       </c>
       <c r="B18" s="4">
-        <v>1327.23</v>
+        <v>1818.0</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -462,7 +462,7 @@
         <v>45309.0</v>
       </c>
       <c r="B19" s="4">
-        <v>2608.42</v>
+        <v>2606.0</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -470,7 +470,7 @@
         <v>45310.0</v>
       </c>
       <c r="B20" s="4">
-        <v>3598.18</v>
+        <v>5605.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -478,7 +478,7 @@
         <v>45311.0</v>
       </c>
       <c r="B21" s="4">
-        <v>4207.44</v>
+        <v>4794.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -486,7 +486,7 @@
         <v>45312.0</v>
       </c>
       <c r="B22" s="4">
-        <v>3762.28</v>
+        <v>3999.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -494,7 +494,7 @@
         <v>45313.0</v>
       </c>
       <c r="B23" s="4">
-        <v>1042.62</v>
+        <v>1637.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -502,7 +502,7 @@
         <v>45314.0</v>
       </c>
       <c r="B24" s="4">
-        <v>1407.63</v>
+        <v>1998.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -510,7 +510,7 @@
         <v>45315.0</v>
       </c>
       <c r="B25" s="4">
-        <v>1630.71</v>
+        <v>2291.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -518,7 +518,7 @@
         <v>45316.0</v>
       </c>
       <c r="B26" s="4">
-        <v>2371.2</v>
+        <v>2403.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -526,7 +526,7 @@
         <v>45317.0</v>
       </c>
       <c r="B27" s="4">
-        <v>3625.1</v>
+        <v>4630.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -534,7 +534,7 @@
         <v>45318.0</v>
       </c>
       <c r="B28" s="4">
-        <v>4026.65</v>
+        <v>4433.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -542,7 +542,7 @@
         <v>45319.0</v>
       </c>
       <c r="B29" s="4">
-        <v>3086.16</v>
+        <v>3776.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -550,7 +550,7 @@
         <v>45320.0</v>
       </c>
       <c r="B30" s="4">
-        <v>1515.82</v>
+        <v>1344.0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -558,7 +558,7 @@
         <v>45321.0</v>
       </c>
       <c r="B31" s="4">
-        <v>1572.74</v>
+        <v>2361.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -566,7 +566,7 @@
         <v>45322.0</v>
       </c>
       <c r="B32" s="4">
-        <v>1795.77</v>
+        <v>2110.0</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -574,7 +574,7 @@
         <v>45323.0</v>
       </c>
       <c r="B33" s="4">
-        <v>2285.85</v>
+        <v>2574.0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -582,7 +582,7 @@
         <v>45324.0</v>
       </c>
       <c r="B34" s="4">
-        <v>3916.26</v>
+        <v>4998.0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -590,7 +590,7 @@
         <v>45325.0</v>
       </c>
       <c r="B35" s="4">
-        <v>5018.77</v>
+        <v>5068.0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -598,7 +598,7 @@
         <v>45326.0</v>
       </c>
       <c r="B36" s="4">
-        <v>3442.3</v>
+        <v>4436.0</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -606,7 +606,7 @@
         <v>45327.0</v>
       </c>
       <c r="B37" s="4">
-        <v>1004.8</v>
+        <v>1692.0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -614,7 +614,7 @@
         <v>45328.0</v>
       </c>
       <c r="B38" s="4">
-        <v>1735.23</v>
+        <v>1516.0</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -622,7 +622,7 @@
         <v>45329.0</v>
       </c>
       <c r="B39" s="4">
-        <v>1778.85</v>
+        <v>1707.0</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -630,7 +630,7 @@
         <v>45330.0</v>
       </c>
       <c r="B40" s="4">
-        <v>2675.77</v>
+        <v>2631.0</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -638,7 +638,7 @@
         <v>45331.0</v>
       </c>
       <c r="B41" s="4">
-        <v>4135.67</v>
+        <v>6885.0</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -646,7 +646,7 @@
         <v>45332.0</v>
       </c>
       <c r="B42" s="4">
-        <v>8004.98</v>
+        <v>7633.0</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -654,7 +654,7 @@
         <v>45333.0</v>
       </c>
       <c r="B43" s="4">
-        <v>5564.0</v>
+        <v>5783.0</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -662,7 +662,7 @@
         <v>45334.0</v>
       </c>
       <c r="B44" s="4">
-        <v>1793.85</v>
+        <v>2103.0</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -670,7 +670,7 @@
         <v>45335.0</v>
       </c>
       <c r="B45" s="4">
-        <v>1794.57</v>
+        <v>1759.0</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -678,7 +678,7 @@
         <v>45336.0</v>
       </c>
       <c r="B46" s="4">
-        <v>2266.64</v>
+        <v>2067.0</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -686,7 +686,7 @@
         <v>45337.0</v>
       </c>
       <c r="B47" s="4">
-        <v>1914.02</v>
+        <v>2340.0</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -694,7 +694,7 @@
         <v>45338.0</v>
       </c>
       <c r="B48" s="4">
-        <v>3876.17</v>
+        <v>4320.0</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -702,7 +702,7 @@
         <v>45339.0</v>
       </c>
       <c r="B49" s="4">
-        <v>5075.99</v>
+        <v>5657.0</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -710,7 +710,7 @@
         <v>45340.0</v>
       </c>
       <c r="B50" s="4">
-        <v>3114.2</v>
+        <v>4047.0</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -718,7 +718,7 @@
         <v>45341.0</v>
       </c>
       <c r="B51" s="4">
-        <v>1518.95</v>
+        <v>1063.0</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -726,7 +726,7 @@
         <v>45342.0</v>
       </c>
       <c r="B52" s="4">
-        <v>1577.11</v>
+        <v>1930.0</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -734,7 +734,7 @@
         <v>45343.0</v>
       </c>
       <c r="B53" s="4">
-        <v>2057.16</v>
+        <v>2159.0</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -742,7 +742,7 @@
         <v>45344.0</v>
       </c>
       <c r="B54" s="4">
-        <v>2125.82</v>
+        <v>2197.0</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -750,7 +750,7 @@
         <v>45345.0</v>
       </c>
       <c r="B55" s="4">
-        <v>3767.53</v>
+        <v>5214.0</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -758,7 +758,7 @@
         <v>45346.0</v>
       </c>
       <c r="B56" s="4">
-        <v>4929.22</v>
+        <v>4219.0</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -766,7 +766,7 @@
         <v>45347.0</v>
       </c>
       <c r="B57" s="4">
-        <v>3619.54</v>
+        <v>4198.0</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -774,31 +774,31 @@
         <v>45348.0</v>
       </c>
       <c r="B58" s="4">
-        <v>1129.29</v>
+        <v>1402.0</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="3">
         <v>45349.0</v>
       </c>
-      <c r="B59" s="5">
-        <v>1529.0</v>
+      <c r="B59" s="2">
+        <v>2315.0</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="3">
         <v>45350.0</v>
       </c>
-      <c r="B60" s="5">
-        <v>1164.0</v>
+      <c r="B60" s="2">
+        <v>1387.0</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="3">
         <v>45351.0</v>
       </c>
-      <c r="B61" s="5">
-        <v>2363.0</v>
+      <c r="B61" s="2">
+        <v>2656.0</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -6490,31 +6490,76 @@
       </c>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="B773" s="7"/>
+      <c r="A773" s="3">
+        <v>46063.0</v>
+      </c>
+      <c r="B773" s="6">
+        <v>1748.0</v>
+      </c>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="B774" s="7"/>
+      <c r="A774" s="3">
+        <v>46064.0</v>
+      </c>
+      <c r="B774" s="6">
+        <v>2372.0</v>
+      </c>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="B775" s="7"/>
+      <c r="A775" s="3">
+        <v>46065.0</v>
+      </c>
+      <c r="B775" s="6">
+        <v>2720.46</v>
+      </c>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="B776" s="7"/>
+      <c r="A776" s="3">
+        <v>46066.0</v>
+      </c>
+      <c r="B776" s="6">
+        <v>4817.0</v>
+      </c>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="B777" s="7"/>
+      <c r="A777" s="3">
+        <v>46067.0</v>
+      </c>
+      <c r="B777" s="6">
+        <v>6422.0</v>
+      </c>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="B778" s="7"/>
+      <c r="A778" s="3">
+        <v>46068.0</v>
+      </c>
+      <c r="B778" s="6">
+        <v>4070.0</v>
+      </c>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="B779" s="7"/>
+      <c r="A779" s="3">
+        <v>46069.0</v>
+      </c>
+      <c r="B779" s="6">
+        <v>1835.0</v>
+      </c>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="B780" s="7"/>
+      <c r="A780" s="3">
+        <v>46070.0</v>
+      </c>
+      <c r="B780" s="6">
+        <v>1937.0</v>
+      </c>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="B781" s="7"/>
+      <c r="A781" s="3">
+        <v>46071.0</v>
+      </c>
+      <c r="B781" s="6">
+        <v>1385.0</v>
+      </c>
     </row>
     <row r="782" ht="15.75" customHeight="1">
       <c r="B782" s="7"/>
